--- a/input/mlm_20210221.xlsx
+++ b/input/mlm_20210221.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="15" windowWidth="18510" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="1665" yWindow="15" windowWidth="25200" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StatsMM!$A$1:$K$137</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3310,7 +3310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4395,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4451,273 +4451,259 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
+      <c r="A2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I2" s="14">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J2" s="14" t="str">
-        <f t="shared" ref="J2:J33" si="0">CONCATENATE("%",H2,"(",A2,", ",C2,", ",G2,",",I2,");")</f>
-        <v>%logit_cat(UTI_ChronicBac, AnyUcathPost, Logistic Categorical,1);</v>
+        <f>CONCATENATE("%",H2,"(",A2,", ",C2,", ",G2,",",I2,");")</f>
+        <v>%desc_mean(Post_creat_18mo, GroupCat , anova,21);</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I3" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J3" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(ChronicUTI, CystoIntraOp, Logistic Categorical,2);</v>
+        <f>CONCATENATE("%",H3,"(",A3,", ",C3,", ",G3,",",I3,");")</f>
+        <v>%desc_mean(Post_creat_1mo, GroupCat , anova,22);</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
+      <c r="A4" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I4" s="14">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(ClearIFX, CystoIntraOp, Logistic Categorical,3);</v>
+        <f>CONCATENATE("%",H4,"(",A4,", ",C4,", ",G4,",",I4,");")</f>
+        <v>%desc_mean(Post_creat_1week, GroupCat , anova,23);</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>244</v>
+      <c r="A5" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I5" s="14">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Post_UTI_any, CystoIntraOp, Logistic Categorical,4);</v>
+        <f>CONCATENATE("%",H5,"(",A5,", ",C5,", ",G5,",",I5,");")</f>
+        <v>%desc_mean(Post_creat_1yr, GroupCat , anova,24);</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>202</v>
+      <c r="A6" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I6" s="14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(SymptomUTI, CystoIntraOp, Logistic Categorical,5);</v>
+        <f>CONCATENATE("%",H6,"(",A6,", ",C6,", ",G6,",",I6,");")</f>
+        <v>%desc_mean(Post_creat_2yr, GroupCat , anova,25);</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>222</v>
+      <c r="A7" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I7" s="14">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(UTI_ChronicBac, CystoIntraOp, Logistic Categorical,6);</v>
+        <f>CONCATENATE("%",H7,"(",A7,", ",C7,", ",G7,",",I7,");")</f>
+        <v>%desc_mean(Post_creat_3mo, GroupCat , anova,26);</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>223</v>
+      <c r="A8" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I8" s="14">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(UTI_ChronicFungal, CystoIntraOp, Logistic Categorical,7);</v>
+        <f>CONCATENATE("%",H8,"(",A8,", ",C8,", ",G8,",",I8,");")</f>
+        <v>%desc_mean(Post_creat_3yr, GroupCat , anova,27);</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>249</v>
+      <c r="A9" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>252</v>
@@ -4726,464 +4712,440 @@
         <v>253</v>
       </c>
       <c r="I9" s="14">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(UTI_Number, CystoIntraOp, anova,8);</v>
+        <f>CONCATENATE("%",H9,"(",A9,", ",C9,", ",G9,",",I9,");")</f>
+        <v>%desc_mean(Post_creat_6mo, GroupCat , anova,28);</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I10" s="14">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hx_SUBInfectionProt, EDTACombo, Logistic Categorical,9);</v>
+        <f>CONCATENATE("%",H10,"(",A10,", ",C10,", ",G10,",",I10,");")</f>
+        <v>%desc_mean(Post_creat_9mo, GroupCat , anova,29);</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I11" s="14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hx_SUBDeminProt, EDTACombo, Logistic Categorical,10);</v>
+        <f>CONCATENATE("%",H11,"(",A11,", ",C11,", ",G11,",",I11,");")</f>
+        <v>%desc_mean(Post_creat_lastor3mo, GroupCat , anova,30);</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I12" s="14">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hx_SUBDeminReobstruct, EDTACombo, Logistic Categorical,11);</v>
+        <f>CONCATENATE("%",H12,"(",A12,", ",C12,", ",G12,",",I12,");")</f>
+        <v>%desc_mean(Post_Lastcreat, GroupCat , anova,34);</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I13" s="14">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hx_SUBDeminWork, EDTACombo, Logistic Categorical,12);</v>
+        <f>CONCATENATE("%",H13,"(",A13,", ",C13,", ",G13,",",I13,");")</f>
+        <v>%desc_mean(PT_SURV_T, GroupCat , anova,37);</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I14" s="14">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hx_SUBinfectionProtWork, EDTACombo, Logistic Categorical,13);</v>
+        <f>CONCATENATE("%",H14,"(",A14,", ",C14,", ",G14,",",I14,");")</f>
+        <v>%desc_mean(TimeFirstUTI, GroupCat , anova,39);</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I15" s="14">
-        <v>14</v>
+        <v>253</v>
+      </c>
+      <c r="I15" s="23">
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(ChronicUTI, GroupCat , Logistic Categorical,14);</v>
+        <f>CONCATENATE("%",H15,"(",A15,", ",C15,", ",G15,",",I15,");")</f>
+        <v>%desc_mean(TimeMin, GroupDevice , anova,49);</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+      <c r="A16" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I16" s="14">
-        <v>15</v>
+        <v>253</v>
+      </c>
+      <c r="I16" s="23">
+        <v>58</v>
       </c>
       <c r="J16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(ClearIFX, GroupCat , Logistic Categorical,15);</v>
+        <f>CONCATENATE("%",H16,"(",A16,", ",C16,", ",G16,",",I16,");")</f>
+        <v>%desc_mean(TimeMin, HighCa_Post , anova,58);</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
+      <c r="A17" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="23">
+        <v>72</v>
+      </c>
+      <c r="J17" s="14" t="str">
+        <f>CONCATENATE("%",H17,"(",A17,", ",C17,", ",G17,",",I17,");")</f>
+        <v>%desc_mean(TimeMin, pre_iCa , anova,72);</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="14">
-        <v>16</v>
-      </c>
-      <c r="J17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(DefRenal, GroupCat , Logistic Categorical,16);</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I18" s="14">
-        <v>17</v>
+        <v>253</v>
+      </c>
+      <c r="I18" s="23">
+        <v>109</v>
       </c>
       <c r="J18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(DefUreter, GroupCat , Logistic Categorical,17);</v>
+        <f>CONCATENATE("%",H18,"(",A18,", ",C18,", ",G18,",",I18,");")</f>
+        <v>%desc_mean(TimeMin, Stone, anova,109);</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I19" s="14">
-        <v>18</v>
+        <v>253</v>
+      </c>
+      <c r="I19" s="23">
+        <v>50</v>
       </c>
       <c r="J19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(Hematuria_Gross, GroupCat , Logistic Categorical,18);</v>
+        <f>CONCATENATE("%",H19,"(",A19,", ",C19,", ",G19,",",I19,");")</f>
+        <v>%desc_mean(TimeStoneBlock, GroupDevice , anova,50);</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>112</v>
+      <c r="A20" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="14">
-        <v>19</v>
+        <v>253</v>
+      </c>
+      <c r="I20" s="23">
+        <v>59</v>
       </c>
       <c r="J20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(LikelyRenal, GroupCat , Logistic Categorical,19);</v>
+        <f>CONCATENATE("%",H20,"(",A20,", ",C20,", ",G20,",",I20,");")</f>
+        <v>%desc_mean(TimeStoneBlock, HighCa_Post , anova,59);</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>117</v>
+      <c r="A21" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I21" s="14">
-        <v>20</v>
+        <v>253</v>
+      </c>
+      <c r="I21" s="23">
+        <v>73</v>
       </c>
       <c r="J21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%logit_cat(NotRenal, GroupCat , Logistic Categorical,20);</v>
+        <f>CONCATENATE("%",H21,"(",A21,", ",C21,", ",G21,",",I21,");")</f>
+        <v>%desc_mean(TimeStoneBlock, pre_iCa , anova,73);</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>122</v>
+      <c r="A22" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>252</v>
@@ -5191,33 +5153,33 @@
       <c r="H22" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="14">
-        <v>21</v>
+      <c r="I22" s="23">
+        <v>110</v>
       </c>
       <c r="J22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_18mo, GroupCat , anova,21);</v>
+        <f>CONCATENATE("%",H22,"(",A22,", ",C22,", ",G22,",",I22,");")</f>
+        <v>%desc_mean(TimeStoneBlock, Stone, anova,110);</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>263</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>252</v>
@@ -5225,33 +5187,33 @@
       <c r="H23" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="14">
-        <v>22</v>
+      <c r="I23" s="23">
+        <v>51</v>
       </c>
       <c r="J23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_1mo, GroupCat , anova,22);</v>
+        <f>CONCATENATE("%",H23,"(",A23,", ",C23,", ",G23,",",I23,");")</f>
+        <v>%desc_mean(TimMinStoneBlock, GroupDevice , anova,51);</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
+      <c r="A24" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>252</v>
@@ -5260,19 +5222,19 @@
         <v>253</v>
       </c>
       <c r="I24" s="14">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_1week, GroupCat , anova,23);</v>
+        <f>CONCATENATE("%",H24,"(",A24,", ",C24,", ",G24,",",I24,");")</f>
+        <v>%desc_mean(UTI_Number, CystoIntraOp, anova,8);</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>250</v>
@@ -5285,7 +5247,7 @@
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>252</v>
@@ -5294,32 +5256,32 @@
         <v>253</v>
       </c>
       <c r="I25" s="14">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_1yr, GroupCat , anova,24);</v>
+        <f>CONCATENATE("%",H25,"(",A25,", ",C25,", ",G25,",",I25,");")</f>
+        <v>%desc_mean(UTI_number, GroupCat , anova,43);</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>126</v>
+      <c r="A26" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
@@ -5327,33 +5289,33 @@
       <c r="H26" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I26" s="14">
-        <v>25</v>
+      <c r="I26" s="23">
+        <v>80</v>
       </c>
       <c r="J26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_2yr, GroupCat , anova,25);</v>
+        <f>CONCATENATE("%",H26,"(",A26,", ",C26,", ",G26,",",I26,");")</f>
+        <v>%desc_mean(UTI_Number, PreAbx72, anova,80);</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
-        <v>127</v>
+      <c r="A27" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>252</v>
@@ -5361,33 +5323,33 @@
       <c r="H27" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I27" s="14">
-        <v>26</v>
+      <c r="I27" s="23">
+        <v>91</v>
       </c>
       <c r="J27" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_3mo, GroupCat , anova,26);</v>
+        <f>CONCATENATE("%",H27,"(",A27,", ",C27,", ",G27,",",I27,");")</f>
+        <v>%desc_mean(UTI_Number, PreSx_UTI , anova,91);</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
-        <v>128</v>
+      <c r="A28" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>252</v>
@@ -5395,597 +5357,611 @@
       <c r="H28" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I28" s="14">
-        <v>27</v>
+      <c r="I28" s="23">
+        <v>102</v>
       </c>
       <c r="J28" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_3yr, GroupCat , anova,27);</v>
+        <f>CONCATENATE("%",H28,"(",A28,", ",C28,", ",G28,",",I28,");")</f>
+        <v>%desc_mean(UTI_Number, PU_Sx, anova,102);</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
-        <v>129</v>
+      <c r="A29" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>271</v>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I29" s="14">
-        <v>28</v>
+        <v>364</v>
+      </c>
+      <c r="I29" s="23">
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_6mo, GroupCat , anova,28);</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>271</v>
+        <f>CONCATENATE("%",H29,"(",A29,", ",C29,", ",E29,",",G29,",",I29,");")</f>
+        <v>%logit(Exchanged, Flush_Time, 1,logistic,122);</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2" t="s">
-        <v>130</v>
+      <c r="A30" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
       <c r="F30" s="23" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" s="14">
-        <v>29</v>
+        <v>364</v>
+      </c>
+      <c r="I30" s="23">
+        <v>111</v>
       </c>
       <c r="J30" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_9mo, GroupCat , anova,29);</v>
+        <f t="shared" ref="J30:J44" si="0">CONCATENATE("%",H30,"(",A30,", ",C30,", ",E30,",",G30,",",I30,");")</f>
+        <v>%logit(Exchanged, SUBT_noEDTA, 1,logistic,111);</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2" t="s">
-        <v>132</v>
+      <c r="A31" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>271</v>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I31" s="14">
-        <v>30</v>
+        <v>364</v>
+      </c>
+      <c r="I31" s="23">
+        <v>123</v>
       </c>
       <c r="J31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>%desc_mean(Post_creat_lastor3mo, GroupCat , anova,30);</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>271</v>
+        <v>%logit(HTF_mineral, Flush_Time, 1,logistic,123);</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
-        <v>134</v>
+      <c r="A32" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="23">
+        <v>250</v>
+      </c>
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I32" s="14">
-        <v>31</v>
+        <v>364</v>
+      </c>
+      <c r="I32" s="23">
+        <v>112</v>
       </c>
       <c r="J32" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>%logit_cat(Post_Dysuria, GroupCat , Logistic Categorical,31);</v>
+        <v>%logit(HTF_mineral, SUBT_noEDTA, 1,logistic,112);</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2" t="s">
-        <v>136</v>
+      <c r="A33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>273</v>
+        <v>65</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I33" s="14">
-        <v>32</v>
+        <v>364</v>
+      </c>
+      <c r="I33" s="23">
+        <v>124</v>
       </c>
       <c r="J33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>%logit_cat(Post_Ecoli, GroupCat , Logistic Categorical,32);</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>273</v>
+        <v>%logit(Hx_SUBDeminProt, Flush_Time, 1,logistic,124);</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2" t="s">
-        <v>138</v>
+      <c r="A34" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="23">
+        <v>250</v>
+      </c>
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" s="14">
-        <v>33</v>
+        <v>364</v>
+      </c>
+      <c r="I34" s="23">
+        <v>113</v>
       </c>
       <c r="J34" s="14" t="str">
-        <f t="shared" ref="J34:J65" si="1">CONCATENATE("%",H34,"(",A34,", ",C34,", ",G34,",",I34,");")</f>
-        <v>%logit_cat(Post_Entero, GroupCat , Logistic Categorical,33);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBDeminProt, SUBT_noEDTA, 1,logistic,113);</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2" t="s">
-        <v>140</v>
+      <c r="A35" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
-        <v>271</v>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I35" s="14">
-        <v>34</v>
+        <v>364</v>
+      </c>
+      <c r="I35" s="23">
+        <v>125</v>
       </c>
       <c r="J35" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(Post_Lastcreat, GroupCat , anova,34);</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>271</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBDeminReobstruct, Flush_Time, 1,logistic,125);</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2" t="s">
-        <v>144</v>
+      <c r="A36" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="23">
+        <v>250</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I36" s="14">
-        <v>35</v>
+        <v>364</v>
+      </c>
+      <c r="I36" s="23">
+        <v>114</v>
       </c>
       <c r="J36" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Post_Staph, GroupCat , Logistic Categorical,35);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBDeminReobstruct, SUBT_noEDTA, 1,logistic,114);</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2" t="s">
-        <v>148</v>
+      <c r="A37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>276</v>
+        <v>65</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" s="14">
-        <v>36</v>
+        <v>364</v>
+      </c>
+      <c r="I37" s="23">
+        <v>126</v>
       </c>
       <c r="J37" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Post_UTIany, GroupCat , Logistic Categorical,36);</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>276</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBDeminWork, Flush_Time, 1,logistic,126);</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2" t="s">
-        <v>180</v>
+      <c r="A38" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
       <c r="F38" s="23" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I38" s="14">
-        <v>37</v>
+        <v>364</v>
+      </c>
+      <c r="I38" s="23">
+        <v>115</v>
       </c>
       <c r="J38" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(PT_SURV_T, GroupCat , anova,37);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBDeminWork, SUBT_noEDTA, 1,logistic,115);</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="23">
-        <v>1</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>278</v>
+        <v>65</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I39" s="14">
-        <v>38</v>
+        <v>364</v>
+      </c>
+      <c r="I39" s="23">
+        <v>127</v>
       </c>
       <c r="J39" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(SymptomUTI, GroupCat , Logistic Categorical,38);</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>278</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBInfectionProt, Flush_Time, 1,logistic,127);</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
       <c r="F40" s="23" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" s="14">
-        <v>39</v>
+        <v>364</v>
+      </c>
+      <c r="I40" s="23">
+        <v>116</v>
       </c>
       <c r="J40" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimeFirstUTI, GroupCat , anova,39);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBInfectionProt, SUBT_noEDTA, 1,logistic,116);</v>
       </c>
       <c r="K40" s="23" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E41" s="23">
-        <v>1</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>280</v>
+        <v>65</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I41" s="14">
-        <v>40</v>
+        <v>364</v>
+      </c>
+      <c r="I41" s="23">
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(UnlikRenal, GroupCat , Logistic Categorical,40);</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBinfectionProtWork, Flush_Time, 1,logistic,128);</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="23">
+        <v>250</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="14">
-        <v>41</v>
+        <v>364</v>
+      </c>
+      <c r="I42" s="23">
+        <v>117</v>
       </c>
       <c r="J42" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(UTI_ChronicBac, GroupCat , Logistic Categorical,41);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Hx_SUBinfectionProtWork, SUBT_noEDTA, 1,logistic,117);</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2" t="s">
-        <v>223</v>
+      <c r="A43" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="23">
-        <v>1</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>282</v>
+        <v>65</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I43" s="14">
-        <v>42</v>
+        <v>364</v>
+      </c>
+      <c r="I43" s="23">
+        <v>129</v>
       </c>
       <c r="J43" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(UTI_ChronicFungal, GroupCat , Logistic Categorical,42);</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>282</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Stone_CompleteOcclude, Flush_Time, 1,logistic,129);</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="2" t="s">
-        <v>224</v>
+      <c r="A44" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
       <c r="F44" s="23" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I44" s="14">
-        <v>43</v>
+        <v>364</v>
+      </c>
+      <c r="I44" s="23">
+        <v>118</v>
       </c>
       <c r="J44" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(UTI_number, GroupCat , anova,43);</v>
+        <f t="shared" si="0"/>
+        <v>%logit(Stone_CompleteOcclude, SUBT_noEDTA, 1,logistic,118);</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
+      <c r="A45" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E45" s="23">
         <v>1</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>239</v>
@@ -5994,32 +5970,34 @@
         <v>240</v>
       </c>
       <c r="I45" s="14">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J45" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Exchanged, GroupDevice , Logistic Categorical,44);</v>
+        <f>CONCATENATE("%",H45,"(",A45,", ",C45,", ",G45,",",I45,");")</f>
+        <v>%logit_cat(ChronicUTI, CystoIntraOp, Logistic Categorical,2);</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="23">
+        <v>1</v>
+      </c>
       <c r="F46" s="23" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>239</v>
@@ -6028,70 +6006,70 @@
         <v>240</v>
       </c>
       <c r="I46" s="14">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J46" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(NumberofExchanges, GroupDevice , Logistic Categorical,45);</v>
+        <f>CONCATENATE("%",H46,"(",A46,", ",C46,", ",G46,",",I46,");")</f>
+        <v>%logit_cat(ChronicUTI, GroupCat , Logistic Categorical,14);</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="23" customFormat="1">
-      <c r="A47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>263</v>
+      <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="E47" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G47" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="14" t="s">
         <v>240</v>
       </c>
       <c r="I47" s="23">
-        <v>46</v>
-      </c>
-      <c r="J47" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(ExchgeStone_Comp, GroupDevice , Logistic Categorical,46);</v>
+        <v>74</v>
+      </c>
+      <c r="J47" s="14" t="str">
+        <f>CONCATENATE("%",H47,"(",A47,", ",C47,", ",G47,",",I47,");")</f>
+        <v>%logit_cat(ChronicUTI, PreAbx72, Logistic Categorical,74);</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="2" t="s">
-        <v>79</v>
+      <c r="A48" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E48" s="23">
         <v>1</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>239</v>
@@ -6100,34 +6078,34 @@
         <v>240</v>
       </c>
       <c r="I48" s="23">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="J48" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(HTF_mineral, GroupDevice , Logistic Categorical,47);</v>
+        <f>CONCATENATE("%",H48,"(",A48,", ",C48,", ",G48,",",I48,");")</f>
+        <v>%logit_cat(ChronicUTI, PreSx_UTI , Logistic Categorical,83);</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="2" t="s">
-        <v>190</v>
+      <c r="A49" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E49" s="23">
         <v>1</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>239</v>
@@ -6136,127 +6114,133 @@
         <v>240</v>
       </c>
       <c r="I49" s="23">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="J49" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Stone_CompleteOcclude, GroupDevice , Logistic Categorical,48);</v>
+        <f>CONCATENATE("%",H49,"(",A49,", ",C49,", ",G49,",",I49,");")</f>
+        <v>%logit_cat(ChronicUTI, PU_Sx, Logistic Categorical,92);</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
-        <v>206</v>
+      <c r="A50" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
       <c r="F50" s="23" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I50" s="23">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="J50" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimeMin, GroupDevice , anova,49);</v>
+        <f>CONCATENATE("%",H50,"(",A50,", ",C50,", ",G50,",",I50,");")</f>
+        <v>%logit_cat(ChronicUTI_PreandPost, PU_Sx, Logistic Categorical,93);</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="2" t="s">
-        <v>210</v>
+      <c r="A51" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
       <c r="F51" s="23" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I51" s="23">
-        <v>50</v>
+        <v>240</v>
+      </c>
+      <c r="I51" s="14">
+        <v>3</v>
       </c>
       <c r="J51" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimeStoneBlock, GroupDevice , anova,50);</v>
+        <f>CONCATENATE("%",H51,"(",A51,", ",C51,", ",G51,",",I51,");")</f>
+        <v>%logit_cat(ClearIFX, CystoIntraOp, Logistic Categorical,3);</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
       <c r="F52" s="23" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I52" s="23">
-        <v>51</v>
+        <v>240</v>
+      </c>
+      <c r="I52" s="14">
+        <v>15</v>
       </c>
       <c r="J52" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimMinStoneBlock, GroupDevice , anova,51);</v>
+        <f>CONCATENATE("%",H52,"(",A52,", ",C52,", ",G52,",",I52,");")</f>
+        <v>%logit_cat(ClearIFX, GroupCat , Logistic Categorical,15);</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>237</v>
@@ -6265,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>239</v>
@@ -6274,34 +6258,34 @@
         <v>240</v>
       </c>
       <c r="I53" s="23">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J53" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Exchanged, HighCa_Post , Logistic Categorical,52);</v>
+        <f>CONCATENATE("%",H53,"(",A53,", ",C53,", ",G53,",",I53,");")</f>
+        <v>%logit_cat(ClearIFX, PreAbx72, Logistic Categorical,75);</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>79</v>
+      <c r="A54" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E54" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>239</v>
@@ -6310,34 +6294,34 @@
         <v>240</v>
       </c>
       <c r="I54" s="23">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J54" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(HTF_mineral, HighCa_Post , Logistic Categorical,53);</v>
+        <f>CONCATENATE("%",H54,"(",A54,", ",C54,", ",G54,",",I54,");")</f>
+        <v>%logit_cat(ClearIFX, PreSx_UTI , Logistic Categorical,84);</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
+      <c r="A55" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E55" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>239</v>
@@ -6346,34 +6330,34 @@
         <v>240</v>
       </c>
       <c r="I55" s="23">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="J55" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Hx_SUBDeminProt, HighCa_Post , Logistic Categorical,54);</v>
+        <f>CONCATENATE("%",H55,"(",A55,", ",C55,", ",G55,",",I55,");")</f>
+        <v>%logit_cat(ClearIFX, PU_Sx, Logistic Categorical,94);</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="4" t="s">
-        <v>91</v>
+      <c r="A56" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E56" s="23">
         <v>1</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>239</v>
@@ -6381,35 +6365,35 @@
       <c r="H56" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I56" s="23">
-        <v>55</v>
+      <c r="I56" s="14">
+        <v>16</v>
       </c>
       <c r="J56" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Hx_SUBDeminReobstruct, HighCa_Post , Logistic Categorical,55);</v>
+        <f>CONCATENATE("%",H56,"(",A56,", ",C56,", ",G56,",",I56,");")</f>
+        <v>%logit_cat(DefRenal, GroupCat , Logistic Categorical,16);</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1" t="s">
-        <v>93</v>
+      <c r="A57" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E57" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>239</v>
@@ -6417,35 +6401,35 @@
       <c r="H57" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I57" s="23">
-        <v>56</v>
+      <c r="I57" s="14">
+        <v>17</v>
       </c>
       <c r="J57" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Hx_SUBDeminWork, HighCa_Post , Logistic Categorical,56);</v>
+        <f>CONCATENATE("%",H57,"(",A57,", ",C57,", ",G57,",",I57,");")</f>
+        <v>%logit_cat(DefUreter, GroupCat , Logistic Categorical,17);</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="4" t="s">
-        <v>190</v>
+      <c r="A58" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E58" s="23">
         <v>1</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>239</v>
@@ -6453,23 +6437,23 @@
       <c r="H58" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="23">
-        <v>57</v>
+      <c r="I58" s="14">
+        <v>44</v>
       </c>
       <c r="J58" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Stone_CompleteOcclude, HighCa_Post , Logistic Categorical,57);</v>
+        <f>CONCATENATE("%",H58,"(",A58,", ",C58,", ",G58,",",I58,");")</f>
+        <v>%logit_cat(Exchanged, GroupDevice , Logistic Categorical,44);</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>295</v>
@@ -6477,70 +6461,74 @@
       <c r="D59" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="23"/>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
       <c r="F59" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I59" s="23">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J59" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimeMin, HighCa_Post , anova,58);</v>
+        <f>CONCATENATE("%",H59,"(",A59,", ",C59,", ",G59,",",I59,");")</f>
+        <v>%logit_cat(Exchanged, HighCa_Post , Logistic Categorical,52);</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23" t="s">
-        <v>303</v>
+        <v>313</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I60" s="23">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J60" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%desc_mean(TimeStoneBlock, HighCa_Post , anova,59);</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>303</v>
+        <f>CONCATENATE("%",H60,"(",A60,", ",C60,", ",G60,",",I60,");")</f>
+        <v>%logit_cat(Exchanged, pre_iCa , Logistic Categorical,66);</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>237</v>
@@ -6549,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>239</v>
@@ -6558,70 +6546,70 @@
         <v>240</v>
       </c>
       <c r="I61" s="23">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="J61" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(PreSx_UTI, Hx_Cystot , Logistic Categorical,60);</v>
+        <f>CONCATENATE("%",H61,"(",A61,", ",C61,", ",G61,",",I61,");")</f>
+        <v>%logit_cat(Exchanged, Stone, Logistic Categorical,103);</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>237</v>
+      <c r="C62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="E62" s="23">
         <v>1</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="23" t="s">
         <v>240</v>
       </c>
       <c r="I62" s="23">
-        <v>61</v>
-      </c>
-      <c r="J62" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(PurulentDebris, Hx_Cystot , Logistic Categorical,61);</v>
+        <v>46</v>
+      </c>
+      <c r="J62" s="23" t="str">
+        <f>CONCATENATE("%",H62,"(",A62,", ",C62,", ",G62,",",I62,");")</f>
+        <v>%logit_cat(ExchgeStone_Comp, GroupDevice , Logistic Categorical,46);</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="4" t="s">
-        <v>216</v>
+      <c r="A63" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E63" s="23">
         <v>1</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>239</v>
@@ -6629,35 +6617,35 @@
       <c r="H63" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I63" s="23">
-        <v>62</v>
+      <c r="I63" s="14">
+        <v>18</v>
       </c>
       <c r="J63" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(Uculture_Pyelo_Result, Hx_Cystot , Logistic Categorical,62);</v>
+        <f>CONCATENATE("%",H63,"(",A63,", ",C63,", ",G63,",",I63,");")</f>
+        <v>%logit_cat(Hematuria_Gross, GroupCat , Logistic Categorical,18);</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4" t="s">
-        <v>178</v>
+      <c r="A64" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E64" s="23">
         <v>1</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>239</v>
@@ -6666,25 +6654,25 @@
         <v>240</v>
       </c>
       <c r="I64" s="23">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="J64" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(PreSx_UTI, Hx_Pre_UTI , Logistic Categorical,63);</v>
+        <f>CONCATENATE("%",H64,"(",A64,", ",C64,", ",G64,",",I64,");")</f>
+        <v>%logit_cat(HTF_mineral, GroupDevice , Logistic Categorical,47);</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="4" t="s">
-        <v>184</v>
+      <c r="A65" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>237</v>
@@ -6693,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>239</v>
@@ -6702,34 +6690,34 @@
         <v>240</v>
       </c>
       <c r="I65" s="23">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J65" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>%logit_cat(PurulentDebris, Hx_Pre_UTI , Logistic Categorical,64);</v>
+        <f>CONCATENATE("%",H65,"(",A65,", ",C65,", ",G65,",",I65,");")</f>
+        <v>%logit_cat(HTF_mineral, HighCa_Post , Logistic Categorical,53);</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="4" t="s">
-        <v>216</v>
+      <c r="A66" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="E66" s="23">
         <v>1</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>239</v>
@@ -6738,34 +6726,34 @@
         <v>240</v>
       </c>
       <c r="I66" s="23">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J66" s="14" t="str">
-        <f t="shared" ref="J66:J97" si="2">CONCATENATE("%",H66,"(",A66,", ",C66,", ",G66,",",I66,");")</f>
-        <v>%logit_cat(Uculture_Pyelo_Result, Hx_Pre_UTI , Logistic Categorical,65);</v>
+        <f>CONCATENATE("%",H66,"(",A66,", ",C66,", ",G66,",",I66,");")</f>
+        <v>%logit_cat(HTF_mineral, pre_iCa , Logistic Categorical,67);</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="4" t="s">
-        <v>51</v>
+      <c r="A67" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="E67" s="23">
         <v>1</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>314</v>
+      <c r="F67" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>239</v>
@@ -6774,34 +6762,34 @@
         <v>240</v>
       </c>
       <c r="I67" s="23">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="J67" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Exchanged, pre_iCa , Logistic Categorical,66);</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>314</v>
+        <f>CONCATENATE("%",H67,"(",A67,", ",C67,", ",G67,",",I67,");")</f>
+        <v>%logit_cat(HTF_mineral, Stone, Logistic Categorical,104);</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1" t="s">
-        <v>79</v>
+      <c r="A68" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="E68" s="23">
         <v>1</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>239</v>
@@ -6809,15 +6797,15 @@
       <c r="H68" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="23">
-        <v>67</v>
+      <c r="I68" s="14">
+        <v>10</v>
       </c>
       <c r="J68" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(HTF_mineral, pre_iCa , Logistic Categorical,67);</v>
+        <f>CONCATENATE("%",H68,"(",A68,", ",C68,", ",G68,",",I68,");")</f>
+        <v>%logit_cat(Hx_SUBDeminProt, EDTACombo, Logistic Categorical,10);</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6828,16 +6816,16 @@
         <v>237</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="E69" s="23">
         <v>1</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>239</v>
@@ -6846,19 +6834,19 @@
         <v>240</v>
       </c>
       <c r="I69" s="23">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J69" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Hx_SUBDeminProt, pre_iCa , Logistic Categorical,68);</v>
+        <f>CONCATENATE("%",H69,"(",A69,", ",C69,", ",G69,",",I69,");")</f>
+        <v>%logit_cat(Hx_SUBDeminProt, HighCa_Post , Logistic Categorical,54);</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="4" t="s">
-        <v>91</v>
+      <c r="A70" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>237</v>
@@ -6873,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>239</v>
@@ -6882,34 +6870,34 @@
         <v>240</v>
       </c>
       <c r="I70" s="23">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J70" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Hx_SUBDeminReobstruct, pre_iCa , Logistic Categorical,69);</v>
+        <f>CONCATENATE("%",H70,"(",A70,", ",C70,", ",G70,",",I70,");")</f>
+        <v>%logit_cat(Hx_SUBDeminProt, pre_iCa , Logistic Categorical,68);</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="E71" s="23">
         <v>1</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>239</v>
@@ -6918,34 +6906,34 @@
         <v>240</v>
       </c>
       <c r="I71" s="23">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="J71" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Hx_SUBDeminWork, pre_iCa , Logistic Categorical,70);</v>
+        <f>CONCATENATE("%",H71,"(",A71,", ",C71,", ",G71,",",I71,");")</f>
+        <v>%logit_cat(Hx_SUBDeminProt, Stone, Logistic Categorical,105);</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="4" t="s">
-        <v>190</v>
+      <c r="A72" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="E72" s="23">
         <v>1</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>239</v>
@@ -6953,57 +6941,59 @@
       <c r="H72" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I72" s="23">
-        <v>71</v>
+      <c r="I72" s="14">
+        <v>11</v>
       </c>
       <c r="J72" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Stone_CompleteOcclude, pre_iCa , Logistic Categorical,71);</v>
+        <f>CONCATENATE("%",H72,"(",A72,", ",C72,", ",G72,",",I72,");")</f>
+        <v>%logit_cat(Hx_SUBDeminReobstruct, EDTACombo, Logistic Categorical,11);</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E73" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E73" s="23">
+        <v>1</v>
+      </c>
       <c r="F73" s="23" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I73" s="23">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J73" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%desc_mean(TimeMin, pre_iCa , anova,72);</v>
+        <f>CONCATENATE("%",H73,"(",A73,", ",C73,", ",G73,",",I73,");")</f>
+        <v>%logit_cat(Hx_SUBDeminReobstruct, HighCa_Post , Logistic Categorical,55);</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="4" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>312</v>
@@ -7011,45 +7001,47 @@
       <c r="D74" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="E74" s="23"/>
+      <c r="E74" s="23">
+        <v>1</v>
+      </c>
       <c r="F74" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I74" s="23">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J74" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%desc_mean(TimeStoneBlock, pre_iCa , anova,73);</v>
+        <f>CONCATENATE("%",H74,"(",A74,", ",C74,", ",G74,",",I74,");")</f>
+        <v>%logit_cat(Hx_SUBDeminReobstruct, pre_iCa , Logistic Categorical,69);</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="E75" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>239</v>
@@ -7058,34 +7050,34 @@
         <v>240</v>
       </c>
       <c r="I75" s="23">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="J75" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ChronicUTI, PreAbx72, Logistic Categorical,74);</v>
+        <f>CONCATENATE("%",H75,"(",A75,", ",C75,", ",G75,",",I75,");")</f>
+        <v>%logit_cat(Hx_SUBDeminReobstruct, Stone, Logistic Categorical,106);</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="4" t="s">
-        <v>15</v>
+      <c r="A76" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E76" s="23">
         <v>1</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>239</v>
@@ -7093,26 +7085,26 @@
       <c r="H76" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I76" s="23">
-        <v>75</v>
+      <c r="I76" s="14">
+        <v>12</v>
       </c>
       <c r="J76" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ClearIFX, PreAbx72, Logistic Categorical,75);</v>
+        <f>CONCATENATE("%",H76,"(",A76,", ",C76,", ",G76,",",I76,");")</f>
+        <v>%logit_cat(Hx_SUBDeminWork, EDTACombo, Logistic Categorical,12);</v>
       </c>
       <c r="K76" s="23" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="4" t="s">
-        <v>244</v>
+      <c r="A77" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>237</v>
@@ -7121,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>239</v>
@@ -7130,34 +7122,34 @@
         <v>240</v>
       </c>
       <c r="I77" s="23">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J77" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Post_UTI_any, PreAbx72, Logistic Categorical,76);</v>
+        <f>CONCATENATE("%",H77,"(",A77,", ",C77,", ",G77,",",I77,");")</f>
+        <v>%logit_cat(Hx_SUBDeminWork, HighCa_Post , Logistic Categorical,56);</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="4" t="s">
-        <v>202</v>
+      <c r="A78" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="E78" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>239</v>
@@ -7166,25 +7158,25 @@
         <v>240</v>
       </c>
       <c r="I78" s="23">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J78" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(SymptomUTI, PreAbx72, Logistic Categorical,77);</v>
+        <f>CONCATENATE("%",H78,"(",A78,", ",C78,", ",G78,",",I78,");")</f>
+        <v>%logit_cat(Hx_SUBDeminWork, pre_iCa , Logistic Categorical,70);</v>
       </c>
       <c r="K78" s="23" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>237</v>
@@ -7193,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>239</v>
@@ -7202,34 +7194,34 @@
         <v>240</v>
       </c>
       <c r="I79" s="23">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="J79" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(UTI_ChronicBac, PreAbx72, Logistic Categorical,78);</v>
+        <f>CONCATENATE("%",H79,"(",A79,", ",C79,", ",G79,",",I79,");")</f>
+        <v>%logit_cat(Hx_SUBDeminWork, Stone, Logistic Categorical,107);</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="4" t="s">
-        <v>223</v>
+      <c r="A80" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E80" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>239</v>
@@ -7237,69 +7229,71 @@
       <c r="H80" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I80" s="23">
-        <v>79</v>
+      <c r="I80" s="14">
+        <v>9</v>
       </c>
       <c r="J80" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(UTI_ChronicFungal, PreAbx72, Logistic Categorical,79);</v>
+        <f>CONCATENATE("%",H80,"(",A80,", ",C80,", ",G80,",",I80,");")</f>
+        <v>%logit_cat(Hx_SUBInfectionProt, EDTACombo, Logistic Categorical,9);</v>
       </c>
       <c r="K80" s="23" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="4" t="s">
-        <v>249</v>
+      <c r="A81" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" s="23"/>
+        <v>256</v>
+      </c>
+      <c r="E81" s="23">
+        <v>1</v>
+      </c>
       <c r="F81" s="23" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="I81" s="23">
-        <v>80</v>
+        <v>240</v>
+      </c>
+      <c r="I81" s="14">
+        <v>13</v>
       </c>
       <c r="J81" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%desc_mean(UTI_Number, PreAbx72, anova,80);</v>
+        <f>CONCATENATE("%",H81,"(",A81,", ",C81,", ",G81,",",I81,");")</f>
+        <v>%logit_cat(Hx_SUBinfectionProtWork, EDTACombo, Logistic Categorical,13);</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="4" t="s">
-        <v>184</v>
+      <c r="A82" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E82" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>239</v>
@@ -7307,35 +7301,35 @@
       <c r="H82" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I82" s="23">
-        <v>81</v>
+      <c r="I82" s="14">
+        <v>19</v>
       </c>
       <c r="J82" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(PurulentDebris, PreAbx72 , Logistic Categorical,81);</v>
+        <f>CONCATENATE("%",H82,"(",A82,", ",C82,", ",G82,",",I82,");")</f>
+        <v>%logit_cat(LikelyRenal, GroupCat , Logistic Categorical,19);</v>
       </c>
       <c r="K82" s="23" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="4" t="s">
-        <v>216</v>
+      <c r="A83" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E83" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>239</v>
@@ -7343,35 +7337,33 @@
       <c r="H83" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I83" s="23">
-        <v>82</v>
+      <c r="I83" s="14">
+        <v>20</v>
       </c>
       <c r="J83" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Uculture_Pyelo_Result, PreAbx72 , Logistic Categorical,82);</v>
+        <f>CONCATENATE("%",H83,"(",A83,", ",C83,", ",G83,",",I83,");")</f>
+        <v>%logit_cat(NotRenal, GroupCat , Logistic Categorical,20);</v>
       </c>
       <c r="K83" s="23" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="4" t="s">
-        <v>11</v>
+      <c r="A84" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="23">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E84" s="23"/>
       <c r="F84" s="23" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>239</v>
@@ -7379,35 +7371,35 @@
       <c r="H84" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="23">
-        <v>83</v>
+      <c r="I84" s="14">
+        <v>45</v>
       </c>
       <c r="J84" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ChronicUTI, PreSx_UTI , Logistic Categorical,83);</v>
+        <f>CONCATENATE("%",H84,"(",A84,", ",C84,", ",G84,",",I84,");")</f>
+        <v>%logit_cat(NumberofExchanges, GroupDevice , Logistic Categorical,45);</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="4" t="s">
-        <v>15</v>
+      <c r="A85" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E85" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>239</v>
@@ -7415,35 +7407,35 @@
       <c r="H85" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I85" s="23">
-        <v>84</v>
+      <c r="I85" s="14">
+        <v>31</v>
       </c>
       <c r="J85" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ClearIFX, PreSx_UTI , Logistic Categorical,84);</v>
+        <f>CONCATENATE("%",H85,"(",A85,", ",C85,", ",G85,",",I85,");")</f>
+        <v>%logit_cat(Post_Dysuria, GroupCat , Logistic Categorical,31);</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="4" t="s">
-        <v>244</v>
+      <c r="A86" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E86" s="23">
         <v>1</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>239</v>
@@ -7451,35 +7443,35 @@
       <c r="H86" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I86" s="23">
-        <v>85</v>
+      <c r="I86" s="14">
+        <v>32</v>
       </c>
       <c r="J86" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Post_UTI_any, PreSx_UTI , Logistic Categorical,85);</v>
+        <f>CONCATENATE("%",H86,"(",A86,", ",C86,", ",G86,",",I86,");")</f>
+        <v>%logit_cat(Post_Ecoli, GroupCat , Logistic Categorical,32);</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="4" t="s">
-        <v>184</v>
+      <c r="A87" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E87" s="23">
         <v>1</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>239</v>
@@ -7487,35 +7479,35 @@
       <c r="H87" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I87" s="23">
-        <v>86</v>
+      <c r="I87" s="14">
+        <v>33</v>
       </c>
       <c r="J87" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(PurulentDebris, PreSx_UTI , Logistic Categorical,86);</v>
+        <f>CONCATENATE("%",H87,"(",A87,", ",C87,", ",G87,",",I87,");")</f>
+        <v>%logit_cat(Post_Entero, GroupCat , Logistic Categorical,33);</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="4" t="s">
-        <v>202</v>
+      <c r="A88" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E88" s="23">
         <v>1</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>239</v>
@@ -7523,26 +7515,26 @@
       <c r="H88" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I88" s="23">
-        <v>87</v>
+      <c r="I88" s="14">
+        <v>35</v>
       </c>
       <c r="J88" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(SymptomUTI, PreSx_UTI , Logistic Categorical,87);</v>
+        <f>CONCATENATE("%",H88,"(",A88,", ",C88,", ",G88,",",I88,");")</f>
+        <v>%logit_cat(Post_Staph, GroupCat , Logistic Categorical,35);</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="4" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>237</v>
@@ -7551,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>239</v>
@@ -7559,35 +7551,35 @@
       <c r="H89" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I89" s="23">
-        <v>88</v>
+      <c r="I89" s="14">
+        <v>4</v>
       </c>
       <c r="J89" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Uculture_Pyelo_Result, PreSx_UTI , Logistic Categorical,88);</v>
+        <f>CONCATENATE("%",H89,"(",A89,", ",C89,", ",G89,",",I89,");")</f>
+        <v>%logit_cat(Post_UTI_any, CystoIntraOp, Logistic Categorical,4);</v>
       </c>
       <c r="K89" s="23" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1" t="s">
-        <v>222</v>
+      <c r="A90" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E90" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>239</v>
@@ -7596,19 +7588,19 @@
         <v>240</v>
       </c>
       <c r="I90" s="23">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J90" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(UTI_ChronicBac, PreSx_UTI , Logistic Categorical,89);</v>
+        <f>CONCATENATE("%",H90,"(",A90,", ",C90,", ",G90,",",I90,");")</f>
+        <v>%logit_cat(Post_UTI_any, PreAbx72, Logistic Categorical,76);</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="4" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>237</v>
@@ -7623,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>239</v>
@@ -7632,68 +7624,70 @@
         <v>240</v>
       </c>
       <c r="I91" s="23">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J91" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(UTI_ChronicFungal, PreSx_UTI , Logistic Categorical,90);</v>
+        <f>CONCATENATE("%",H91,"(",A91,", ",C91,", ",G91,",",I91,");")</f>
+        <v>%logit_cat(Post_UTI_any, PreSx_UTI , Logistic Categorical,85);</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="23">
+        <v>1</v>
+      </c>
       <c r="F92" s="23" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I92" s="23">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J92" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%desc_mean(UTI_Number, PreSx_UTI , anova,91);</v>
+        <f>CONCATENATE("%",H92,"(",A92,", ",C92,", ",G92,",",I92,");")</f>
+        <v>%logit_cat(Post_UTI_any, PU_Sx, Logistic Categorical,95);</v>
       </c>
       <c r="K92" s="23" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="4" t="s">
-        <v>11</v>
+      <c r="A93" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E93" s="23">
         <v>1</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>239</v>
@@ -7701,26 +7695,26 @@
       <c r="H93" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I93" s="23">
-        <v>92</v>
+      <c r="I93" s="14">
+        <v>36</v>
       </c>
       <c r="J93" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ChronicUTI, PU_Sx, Logistic Categorical,92);</v>
+        <f>CONCATENATE("%",H93,"(",A93,", ",C93,", ",G93,",",I93,");")</f>
+        <v>%logit_cat(Post_UTIany, GroupCat , Logistic Categorical,36);</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="4" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>237</v>
@@ -7729,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>239</v>
@@ -7738,34 +7732,34 @@
         <v>240</v>
       </c>
       <c r="I94" s="23">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J94" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ChronicUTI_PreandPost, PU_Sx, Logistic Categorical,93);</v>
+        <f>CONCATENATE("%",H94,"(",A94,", ",C94,", ",G94,",",I94,");")</f>
+        <v>%logit_cat(PreSx_UTI, Hx_Cystot , Logistic Categorical,60);</v>
       </c>
       <c r="K94" s="23" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="4" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E95" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>239</v>
@@ -7774,19 +7768,19 @@
         <v>240</v>
       </c>
       <c r="I95" s="23">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J95" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(ClearIFX, PU_Sx, Logistic Categorical,94);</v>
+        <f>CONCATENATE("%",H95,"(",A95,", ",C95,", ",G95,",",I95,");")</f>
+        <v>%logit_cat(PreSx_UTI, Hx_Pre_UTI , Logistic Categorical,63);</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="4" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>237</v>
@@ -7801,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>239</v>
@@ -7810,25 +7804,25 @@
         <v>240</v>
       </c>
       <c r="I96" s="23">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J96" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(Post_UTI_any, PU_Sx, Logistic Categorical,95);</v>
+        <f>CONCATENATE("%",H96,"(",A96,", ",C96,", ",G96,",",I96,");")</f>
+        <v>%logit_cat(PreSx_UTI, PU_Sx, Logistic Categorical,96);</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>237</v>
@@ -7837,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>239</v>
@@ -7846,14 +7840,14 @@
         <v>240</v>
       </c>
       <c r="I97" s="23">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J97" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>%logit_cat(PreSx_UTI, PU_Sx, Logistic Categorical,96);</v>
+        <f>CONCATENATE("%",H97,"(",A97,", ",C97,", ",G97,",",I97,");")</f>
+        <v>%logit_cat(PurulentDebris, Hx_Cystot , Logistic Categorical,61);</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7864,7 +7858,7 @@
         <v>237</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>237</v>
@@ -7873,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>239</v>
@@ -7882,34 +7876,34 @@
         <v>240</v>
       </c>
       <c r="I98" s="23">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="J98" s="14" t="str">
-        <f t="shared" ref="J98:J129" si="3">CONCATENATE("%",H98,"(",A98,", ",C98,", ",G98,",",I98,");")</f>
-        <v>%logit_cat(PurulentDebris, PU_Sx, Logistic Categorical,97);</v>
+        <f>CONCATENATE("%",H98,"(",A98,", ",C98,", ",G98,",",I98,");")</f>
+        <v>%logit_cat(PurulentDebris, Hx_Pre_UTI , Logistic Categorical,64);</v>
       </c>
       <c r="K98" s="23" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E99" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>239</v>
@@ -7918,25 +7912,25 @@
         <v>240</v>
       </c>
       <c r="I99" s="23">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J99" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(SymptomUTI, PU_Sx, Logistic Categorical,98);</v>
+        <f>CONCATENATE("%",H99,"(",A99,", ",C99,", ",G99,",",I99,");")</f>
+        <v>%logit_cat(PurulentDebris, PreAbx72 , Logistic Categorical,81);</v>
       </c>
       <c r="K99" s="23" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="4" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>237</v>
@@ -7945,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>239</v>
@@ -7954,19 +7948,19 @@
         <v>240</v>
       </c>
       <c r="I100" s="23">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J100" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Uculture_Pyelo_Result, PU_Sx, Logistic Categorical,99);</v>
+        <f>CONCATENATE("%",H100,"(",A100,", ",C100,", ",G100,",",I100,");")</f>
+        <v>%logit_cat(PurulentDebris, PreSx_UTI , Logistic Categorical,86);</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
-        <v>222</v>
+      <c r="A101" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>237</v>
@@ -7981,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>239</v>
@@ -7990,34 +7984,34 @@
         <v>240</v>
       </c>
       <c r="I101" s="23">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J101" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(UTI_ChronicBac, PU_Sx, Logistic Categorical,100);</v>
+        <f>CONCATENATE("%",H101,"(",A101,", ",C101,", ",G101,",",I101,");")</f>
+        <v>%logit_cat(PurulentDebris, PU_Sx, Logistic Categorical,97);</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="4" t="s">
-        <v>223</v>
+      <c r="A102" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E102" s="23">
         <v>1</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>239</v>
@@ -8026,68 +8020,70 @@
         <v>240</v>
       </c>
       <c r="I102" s="23">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="J102" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(UTI_ChronicFungal, PU_Sx, Logistic Categorical,101);</v>
+        <f>CONCATENATE("%",H102,"(",A102,", ",C102,", ",G102,",",I102,");")</f>
+        <v>%logit_cat(Stone_CompleteOcclude, GroupDevice , Logistic Categorical,48);</v>
       </c>
       <c r="K102" s="23" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="4" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="23">
+        <v>1</v>
+      </c>
       <c r="F103" s="23" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I103" s="23">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="J103" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%desc_mean(UTI_Number, PU_Sx, anova,102);</v>
+        <f>CONCATENATE("%",H103,"(",A103,", ",C103,", ",G103,",",I103,");")</f>
+        <v>%logit_cat(Stone_CompleteOcclude, HighCa_Post , Logistic Categorical,57);</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="4" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="E104" s="23">
         <v>1</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>239</v>
@@ -8096,19 +8092,19 @@
         <v>240</v>
       </c>
       <c r="I104" s="23">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J104" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Exchanged, Stone, Logistic Categorical,103);</v>
+        <f>CONCATENATE("%",H104,"(",A104,", ",C104,", ",G104,",",I104,");")</f>
+        <v>%logit_cat(Stone_CompleteOcclude, pre_iCa , Logistic Categorical,71);</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="1" t="s">
-        <v>79</v>
+      <c r="A105" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>237</v>
@@ -8123,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>239</v>
@@ -8132,25 +8128,25 @@
         <v>240</v>
       </c>
       <c r="I105" s="23">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J105" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(HTF_mineral, Stone, Logistic Categorical,104);</v>
+        <f>CONCATENATE("%",H105,"(",A105,", ",C105,", ",G105,",",I105,");")</f>
+        <v>%logit_cat(Stone_CompleteOcclude, Stone, Logistic Categorical,108);</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1" t="s">
-        <v>89</v>
+      <c r="A106" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>237</v>
@@ -8159,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>239</v>
@@ -8167,35 +8163,35 @@
       <c r="H106" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I106" s="23">
-        <v>105</v>
+      <c r="I106" s="14">
+        <v>5</v>
       </c>
       <c r="J106" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Hx_SUBDeminProt, Stone, Logistic Categorical,105);</v>
+        <f>CONCATENATE("%",H106,"(",A106,", ",C106,", ",G106,",",I106,");")</f>
+        <v>%logit_cat(SymptomUTI, CystoIntraOp, Logistic Categorical,5);</v>
       </c>
       <c r="K106" s="23" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="4" t="s">
-        <v>91</v>
+      <c r="A107" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E107" s="23">
         <v>1</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>239</v>
@@ -8203,26 +8199,26 @@
       <c r="H107" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I107" s="23">
-        <v>106</v>
+      <c r="I107" s="14">
+        <v>38</v>
       </c>
       <c r="J107" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Hx_SUBDeminReobstruct, Stone, Logistic Categorical,106);</v>
+        <f>CONCATENATE("%",H107,"(",A107,", ",C107,", ",G107,",",I107,");")</f>
+        <v>%logit_cat(SymptomUTI, GroupCat , Logistic Categorical,38);</v>
       </c>
       <c r="K107" s="23" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>93</v>
+      <c r="A108" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>237</v>
@@ -8231,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>239</v>
@@ -8240,25 +8236,25 @@
         <v>240</v>
       </c>
       <c r="I108" s="23">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J108" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Hx_SUBDeminWork, Stone, Logistic Categorical,107);</v>
+        <f>CONCATENATE("%",H108,"(",A108,", ",C108,", ",G108,",",I108,");")</f>
+        <v>%logit_cat(SymptomUTI, PreAbx72, Logistic Categorical,77);</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>237</v>
@@ -8267,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>239</v>
@@ -8276,629 +8272,670 @@
         <v>240</v>
       </c>
       <c r="I109" s="23">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="J109" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit_cat(Stone_CompleteOcclude, Stone, Logistic Categorical,108);</v>
+        <f>CONCATENATE("%",H109,"(",A109,", ",C109,", ",G109,",",I109,");")</f>
+        <v>%logit_cat(SymptomUTI, PreSx_UTI , Logistic Categorical,87);</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="23">
+        <v>1</v>
+      </c>
       <c r="F110" s="23" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I110" s="23">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J110" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%desc_mean(TimeMin, Stone, anova,109);</v>
+        <f>CONCATENATE("%",H110,"(",A110,", ",C110,", ",G110,",",I110,");")</f>
+        <v>%logit_cat(SymptomUTI, PU_Sx, Logistic Categorical,98);</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="23">
+        <v>1</v>
+      </c>
       <c r="F111" s="23" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I111" s="23">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="J111" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%desc_mean(TimeStoneBlock, Stone, anova,110);</v>
+        <f>CONCATENATE("%",H111,"(",A111,", ",C111,", ",G111,",",I111,");")</f>
+        <v>%logit_cat(Uculture_Pyelo_Result, Hx_Cystot , Logistic Categorical,62);</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="4" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E112" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E112" s="23">
+        <v>1</v>
+      </c>
       <c r="F112" s="23" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I112" s="23">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="J112" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Exchanged, SUBT_noEDTA, logistic,111);</v>
+        <f>CONCATENATE("%",H112,"(",A112,", ",C112,", ",G112,",",I112,");")</f>
+        <v>%logit_cat(Uculture_Pyelo_Result, Hx_Pre_UTI , Logistic Categorical,65);</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1" t="s">
-        <v>79</v>
+      <c r="A113" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E113" s="23">
+        <v>0</v>
+      </c>
       <c r="F113" s="23" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I113" s="23">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="J113" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(HTF_mineral, SUBT_noEDTA, logistic,112);</v>
+        <f>CONCATENATE("%",H113,"(",A113,", ",C113,", ",G113,",",I113,");")</f>
+        <v>%logit_cat(Uculture_Pyelo_Result, PreAbx72 , Logistic Categorical,82);</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1" t="s">
-        <v>89</v>
+      <c r="A114" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E114" s="23">
+        <v>1</v>
+      </c>
       <c r="F114" s="23" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I114" s="23">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J114" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminProt, SUBT_noEDTA, logistic,113);</v>
+        <f>CONCATENATE("%",H114,"(",A114,", ",C114,", ",G114,",",I114,");")</f>
+        <v>%logit_cat(Uculture_Pyelo_Result, PreSx_UTI , Logistic Categorical,88);</v>
       </c>
       <c r="K114" s="23" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E115" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E115" s="23">
+        <v>1</v>
+      </c>
       <c r="F115" s="23" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I115" s="23">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J115" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminReobstruct, SUBT_noEDTA, logistic,114);</v>
+        <f>CONCATENATE("%",H115,"(",A115,", ",C115,", ",G115,",",I115,");")</f>
+        <v>%logit_cat(Uculture_Pyelo_Result, PU_Sx, Logistic Categorical,99);</v>
       </c>
       <c r="K115" s="23" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1" t="s">
-        <v>93</v>
+      <c r="A116" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E116" s="23"/>
+        <v>263</v>
+      </c>
+      <c r="E116" s="23">
+        <v>1</v>
+      </c>
       <c r="F116" s="23" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I116" s="23">
-        <v>115</v>
+        <v>240</v>
+      </c>
+      <c r="I116" s="14">
+        <v>40</v>
       </c>
       <c r="J116" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminWork, SUBT_noEDTA, logistic,115);</v>
+        <f>CONCATENATE("%",H116,"(",A116,", ",C116,", ",G116,",",I116,");")</f>
+        <v>%logit_cat(UnlikRenal, GroupCat , Logistic Categorical,40);</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="2" t="s">
-        <v>95</v>
+      <c r="A117" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>361</v>
+      <c r="C117" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E117" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E117" s="23">
+        <v>1</v>
+      </c>
       <c r="F117" s="23" t="s">
-        <v>369</v>
+        <v>238</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I117" s="23">
-        <v>116</v>
+        <v>240</v>
+      </c>
+      <c r="I117" s="14">
+        <v>1</v>
       </c>
       <c r="J117" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBInfectionProt, SUBT_noEDTA, logistic,116);</v>
+        <f>CONCATENATE("%",H117,"(",A117,", ",C117,", ",G117,",",I117,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, AnyUcathPost, Logistic Categorical,1);</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>369</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="2" t="s">
-        <v>97</v>
+      <c r="A118" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E118" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E118" s="23">
+        <v>1</v>
+      </c>
       <c r="F118" s="23" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I118" s="23">
-        <v>117</v>
+        <v>240</v>
+      </c>
+      <c r="I118" s="14">
+        <v>6</v>
       </c>
       <c r="J118" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBinfectionProtWork, SUBT_noEDTA, logistic,117);</v>
+        <f>CONCATENATE("%",H118,"(",A118,", ",C118,", ",G118,",",I118,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, CystoIntraOp, Logistic Categorical,6);</v>
       </c>
       <c r="K118" s="23" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="4" t="s">
-        <v>190</v>
+      <c r="A119" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E119" s="23"/>
+        <v>263</v>
+      </c>
+      <c r="E119" s="23">
+        <v>1</v>
+      </c>
       <c r="F119" s="23" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I119" s="23">
-        <v>118</v>
+        <v>240</v>
+      </c>
+      <c r="I119" s="14">
+        <v>41</v>
       </c>
       <c r="J119" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Stone_CompleteOcclude, SUBT_noEDTA, logistic,118);</v>
+        <f>CONCATENATE("%",H119,"(",A119,", ",C119,", ",G119,",",I119,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, GroupCat , Logistic Categorical,41);</v>
       </c>
       <c r="K119" s="23" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="2" t="s">
-        <v>204</v>
+      <c r="A120" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E120" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E120" s="23">
+        <v>0</v>
+      </c>
       <c r="F120" s="23" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="I120" s="23">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="J120" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%reg(TimeFirstUTI, SUBT_noEDTA, regression,119);</v>
+        <f>CONCATENATE("%",H120,"(",A120,", ",C120,", ",G120,",",I120,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, PreAbx72, Logistic Categorical,78);</v>
       </c>
       <c r="K120" s="23" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="4" t="s">
-        <v>206</v>
+      <c r="A121" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E121" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E121" s="23">
+        <v>1</v>
+      </c>
       <c r="F121" s="23" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="I121" s="23">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J121" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%reg(TimeMin, SUBT_noEDTA, regression,120);</v>
+        <f>CONCATENATE("%",H121,"(",A121,", ",C121,", ",G121,",",I121,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, PreSx_UTI , Logistic Categorical,89);</v>
       </c>
       <c r="K121" s="23" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="4" t="s">
-        <v>210</v>
+      <c r="A122" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E122" s="23">
+        <v>1</v>
+      </c>
       <c r="F122" s="23" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="I122" s="23">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="J122" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%reg(TimeStoneBlock, SUBT_noEDTA, regression,121);</v>
+        <f>CONCATENATE("%",H122,"(",A122,", ",C122,", ",G122,",",I122,");")</f>
+        <v>%logit_cat(UTI_ChronicBac, PU_Sx, Logistic Categorical,100);</v>
       </c>
       <c r="K122" s="23" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="4" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>377</v>
+        <v>241</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E123" s="23">
+        <v>1</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I123" s="23">
-        <v>122</v>
+        <v>240</v>
+      </c>
+      <c r="I123" s="14">
+        <v>7</v>
       </c>
       <c r="J123" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Exchanged, Flush_Time, logistic,122);</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>377</v>
+        <f>CONCATENATE("%",H123,"(",A123,", ",C123,", ",G123,",",I123,");")</f>
+        <v>%logit_cat(UTI_ChronicFungal, CystoIntraOp, Logistic Categorical,7);</v>
+      </c>
+      <c r="K123" s="23" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="1" t="s">
-        <v>79</v>
+      <c r="A124" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>378</v>
+        <v>262</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" s="23">
+        <v>1</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I124" s="23">
-        <v>123</v>
+        <v>240</v>
+      </c>
+      <c r="I124" s="14">
+        <v>42</v>
       </c>
       <c r="J124" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(HTF_mineral, Flush_Time, logistic,123);</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>378</v>
+        <f>CONCATENATE("%",H124,"(",A124,", ",C124,", ",G124,",",I124,");")</f>
+        <v>%logit_cat(UTI_ChronicFungal, GroupCat , Logistic Categorical,42);</v>
+      </c>
+      <c r="K124" s="23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="1" t="s">
-        <v>89</v>
+      <c r="A125" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>379</v>
+        <v>174</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" s="23">
+        <v>0</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I125" s="23">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="J125" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminProt, Flush_Time, logistic,124);</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>379</v>
+        <f>CONCATENATE("%",H125,"(",A125,", ",C125,", ",G125,",",I125,");")</f>
+        <v>%logit_cat(UTI_ChronicFungal, PreAbx72, Logistic Categorical,79);</v>
+      </c>
+      <c r="K125" s="23" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="4" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>380</v>
+        <v>332</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E126" s="23">
+        <v>1</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I126" s="23">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="J126" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminReobstruct, Flush_Time, logistic,125);</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>380</v>
+        <f>CONCATENATE("%",H126,"(",A126,", ",C126,", ",G126,",",I126,");")</f>
+        <v>%logit_cat(UTI_ChronicFungal, PreSx_UTI , Logistic Categorical,90);</v>
+      </c>
+      <c r="K126" s="23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1" t="s">
-        <v>93</v>
+      <c r="A127" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>381</v>
+        <v>182</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127" s="23">
+        <v>1</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="I127" s="23">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J127" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBDeminWork, Flush_Time, logistic,126);</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>381</v>
+        <f>CONCATENATE("%",H127,"(",A127,", ",C127,", ",G127,",",I127,");")</f>
+        <v>%logit_cat(UTI_ChronicFungal, PU_Sx, Logistic Categorical,101);</v>
+      </c>
+      <c r="K127" s="23" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="2" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>65</v>
@@ -8907,31 +8944,31 @@
         <v>250</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="I128" s="23">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J128" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBInfectionProt, Flush_Time, logistic,127);</v>
+        <f>CONCATENATE("%",H128,"(",A128,", ",C128,", ",G128,",",I128,");")</f>
+        <v>%reg(NumberofExchanges, Flush_Time, regression,133);</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>65</v>
@@ -8940,61 +8977,62 @@
         <v>250</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="I129" s="23">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J129" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>%logit(Hx_SUBinfectionProtWork, Flush_Time, logistic,128);</v>
+        <f>CONCATENATE("%",H129,"(",A129,", ",C129,", ",G129,",",I129,");")</f>
+        <v>%reg(TimeFirstUTI, Flush_Time, regression,130);</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="4" t="s">
-        <v>190</v>
+      <c r="A130" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D130" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>384</v>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="I130" s="23">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J130" s="14" t="str">
-        <f t="shared" ref="J130:J134" si="4">CONCATENATE("%",H130,"(",A130,", ",C130,", ",G130,",",I130,");")</f>
-        <v>%logit(Stone_CompleteOcclude, Flush_Time, logistic,129);</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>384</v>
+        <f>CONCATENATE("%",H130,"(",A130,", ",C130,", ",G130,",",I130,");")</f>
+        <v>%reg(TimeFirstUTI, SUBT_noEDTA, regression,119);</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="2" t="s">
-        <v>204</v>
+      <c r="A131" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>250</v>
@@ -9006,7 +9044,7 @@
         <v>250</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>373</v>
@@ -9015,14 +9053,14 @@
         <v>374</v>
       </c>
       <c r="I131" s="23">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J131" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>%reg(TimeFirstUTI, Flush_Time, regression,130);</v>
+        <f>CONCATENATE("%",H131,"(",A131,", ",C131,", ",G131,",",I131,");")</f>
+        <v>%reg(TimeMin, Flush_Time, regression,131);</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -9033,13 +9071,14 @@
         <v>250</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D132" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D132" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>386</v>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>373</v>
@@ -9048,14 +9087,14 @@
         <v>374</v>
       </c>
       <c r="I132" s="23">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J132" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>%reg(TimeMin, Flush_Time, regression,131);</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>386</v>
+        <f>CONCATENATE("%",H132,"(",A132,", ",C132,", ",G132,",",I132,");")</f>
+        <v>%reg(TimeMin, SUBT_noEDTA, regression,120);</v>
+      </c>
+      <c r="K132" s="23" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -9084,7 +9123,7 @@
         <v>132</v>
       </c>
       <c r="J133" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("%",H133,"(",A133,", ",C133,", ",G133,",",I133,");")</f>
         <v>%reg(TimeStoneBlock, Flush_Time, regression,132);</v>
       </c>
       <c r="K133" s="2" t="s">
@@ -9092,20 +9131,21 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="2" t="s">
-        <v>286</v>
+      <c r="A134" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D134" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>388</v>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23" t="s">
+        <v>376</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>373</v>
@@ -9114,19 +9154,21 @@
         <v>374</v>
       </c>
       <c r="I134" s="23">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J134" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>%reg(NumberofExchanges, Flush_Time, regression,133);</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>388</v>
+        <f>CONCATENATE("%",H134,"(",A134,", ",C134,", ",G134,",",I134,");")</f>
+        <v>%reg(TimeStoneBlock, SUBT_noEDTA, regression,121);</v>
+      </c>
+      <c r="K134" s="23" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K137">
-    <sortCondition ref="C2:C137"/>
+  <sortState ref="A2:K134">
+    <sortCondition ref="G2:G134"/>
+    <sortCondition ref="A2:A134"/>
+    <sortCondition ref="C2:C134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -76228,6 +76270,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF8E11C2ECA7614ABB23913F181DF55B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f341e989207bd637d1a958c5450cfd9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ffe975d-c7bf-43e3-bf11-991676b32a62" xmlns:ns4="70918093-0d26-436e-9f95-62fa79a0698e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eeb07255b1ac35973d285ab554f9b3e8" ns3:_="" ns4:_="">
     <xsd:import namespace="6ffe975d-c7bf-43e3-bf11-991676b32a62"/>
@@ -76450,33 +76501,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CADDA3-5FFE-417E-AC21-A49B2A7E35D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="6ffe975d-c7bf-43e3-bf11-991676b32a62"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="70918093-0d26-436e-9f95-62fa79a0698e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539D5AB6-C30B-4EE8-A4BD-8FBC6BBFF733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC20B910-5630-449B-9566-47A673A9FCBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -76493,12 +76543,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539D5AB6-C30B-4EE8-A4BD-8FBC6BBFF733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>